--- a/Lab3/lab3.xlsx
+++ b/Lab3/lab3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruns\Documents\Stat 235\Labs\Stat-235-Labs\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EDD01C-CE67-4897-AD48-57E97CB551EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C311F-E043-495A-9F83-7BADFF4BCEF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poisson Probabilities" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>x</t>
   </si>
@@ -532,15 +532,21 @@
   <si>
     <t>Panel 30</t>
   </si>
+  <si>
+    <t>#defective</t>
+  </si>
+  <si>
+    <t>#perfect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -620,6 +626,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -665,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -723,37 +734,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -926,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -984,7 +964,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1012,29 +995,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1043,10 +1014,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1054,9 +1025,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1065,14 +1036,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1083,22 +1051,31 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,40 +1190,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.77880078307140488</c:v>
+                  <c:v>0.60653065971263342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19470019576785122</c:v>
+                  <c:v>0.30326532985631671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4337524470981402E-2</c:v>
+                  <c:v>7.5816332464079178E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0281270392484511E-3</c:v>
+                  <c:v>1.2636055410679865E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2675793995302814E-4</c:v>
+                  <c:v>1.5795069263349827E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3378969976514081E-6</c:v>
+                  <c:v>1.5795069263349832E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6407904156880876E-7</c:v>
+                  <c:v>1.3162557719458192E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4313943417431834E-9</c:v>
+                  <c:v>9.4018269424701516E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9473107317947329E-10</c:v>
+                  <c:v>5.8761418390438223E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1869742549853782E-12</c:v>
+                  <c:v>3.2645232439132378E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0467435637463418E-13</c:v>
+                  <c:v>1.6322616219566172E-10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6516899176053122E-15</c:v>
+                  <c:v>7.4193710088936996E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,11 +2058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2094,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -2155,7 +2132,7 @@
       </c>
       <c r="C7" s="20">
         <f>POISSON(C5,C3,0)</f>
-        <v>0.19470019576785122</v>
+        <v>0.30326532985631671</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2167,7 +2144,7 @@
       </c>
       <c r="C8" s="20">
         <f>POISSON(C5,C3,1)</f>
-        <v>0.97350097883925613</v>
+        <v>0.90979598956895014</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2193,7 +2170,7 @@
       </c>
       <c r="B64" s="25">
         <f t="shared" ref="B64:B75" si="0">POISSON(A64,$C$3,0)</f>
-        <v>0.77880078307140488</v>
+        <v>0.60653065971263342</v>
       </c>
       <c r="C64" s="25">
         <v>0</v>
@@ -2205,7 +2182,7 @@
       </c>
       <c r="B65" s="25">
         <f t="shared" si="0"/>
-        <v>0.19470019576785122</v>
+        <v>0.30326532985631671</v>
       </c>
       <c r="C65" s="25">
         <v>1</v>
@@ -2217,7 +2194,7 @@
       </c>
       <c r="B66" s="25">
         <f t="shared" si="0"/>
-        <v>2.4337524470981402E-2</v>
+        <v>7.5816332464079178E-2</v>
       </c>
       <c r="C66" s="25">
         <v>2</v>
@@ -2229,7 +2206,7 @@
       </c>
       <c r="B67" s="25">
         <f t="shared" si="0"/>
-        <v>2.0281270392484511E-3</v>
+        <v>1.2636055410679865E-2</v>
       </c>
       <c r="C67" s="25">
         <v>3</v>
@@ -2241,7 +2218,7 @@
       </c>
       <c r="B68" s="25">
         <f t="shared" si="0"/>
-        <v>1.2675793995302814E-4</v>
+        <v>1.5795069263349827E-3</v>
       </c>
       <c r="C68" s="25">
         <v>4</v>
@@ -2253,7 +2230,7 @@
       </c>
       <c r="B69" s="25">
         <f t="shared" si="0"/>
-        <v>6.3378969976514081E-6</v>
+        <v>1.5795069263349832E-4</v>
       </c>
       <c r="C69" s="25">
         <v>5</v>
@@ -2265,7 +2242,7 @@
       </c>
       <c r="B70" s="25">
         <f t="shared" si="0"/>
-        <v>2.6407904156880876E-7</v>
+        <v>1.3162557719458192E-5</v>
       </c>
       <c r="C70" s="25">
         <v>6</v>
@@ -2277,7 +2254,7 @@
       </c>
       <c r="B71" s="25">
         <f t="shared" si="0"/>
-        <v>9.4313943417431834E-9</v>
+        <v>9.4018269424701516E-7</v>
       </c>
       <c r="C71" s="25">
         <v>7</v>
@@ -2289,7 +2266,7 @@
       </c>
       <c r="B72" s="25">
         <f t="shared" si="0"/>
-        <v>2.9473107317947329E-10</v>
+        <v>5.8761418390438223E-8</v>
       </c>
       <c r="C72" s="25">
         <v>8</v>
@@ -2301,7 +2278,7 @@
       </c>
       <c r="B73" s="25">
         <f t="shared" si="0"/>
-        <v>8.1869742549853782E-12</v>
+        <v>3.2645232439132378E-9</v>
       </c>
       <c r="C73" s="25">
         <v>9</v>
@@ -2313,7 +2290,7 @@
       </c>
       <c r="B74" s="25">
         <f t="shared" si="0"/>
-        <v>2.0467435637463418E-13</v>
+        <v>1.6322616219566172E-10</v>
       </c>
       <c r="C74" s="25">
         <v>10</v>
@@ -2325,7 +2302,7 @@
       </c>
       <c r="B75" s="25">
         <f t="shared" si="0"/>
-        <v>4.6516899176053122E-15</v>
+        <v>7.4193710088936996E-12</v>
       </c>
       <c r="C75" s="25">
         <v>11</v>
@@ -2342,12 +2319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2357,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,7 +2368,8 @@
         <v>71</v>
       </c>
       <c r="C4" s="11">
-        <v>1</v>
+        <f>1/SQRT(60)</f>
+        <v>0.12909944487358055</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2439,7 +2417,7 @@
       </c>
       <c r="C9" s="20">
         <f>IF(C6="","",NORMDIST(a,m,s,TRUE))</f>
-        <v>0.15865525393145699</v>
+        <v>1.6508444803965921E-31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,7 +2429,7 @@
       </c>
       <c r="C10" s="20">
         <f>IF(C7="","",1-NORMDIST(b,m,s,TRUE))</f>
-        <v>0.15865525393145696</v>
+        <v>5.3755588364734486E-5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2463,7 +2441,7 @@
       </c>
       <c r="C11" s="20">
         <f>IF(C6&gt;C7, "a&gt;b?", 1-(C9+C10))</f>
-        <v>0.68268949213708607</v>
+        <v>0.99994624441163527</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,7 +2478,7 @@
       </c>
       <c r="C15" s="23">
         <f>NORMINV(C13,C3,C4)</f>
-        <v>-1.2815515655446006</v>
+        <v>0.4323001849179709</v>
       </c>
     </row>
   </sheetData>
@@ -2517,11 +2495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:CW254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2530,68 +2508,68 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56"/>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="56"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
@@ -2634,66 +2612,66 @@
       <c r="CW6" s="1"/>
     </row>
     <row r="7" spans="1:101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="59"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="59"/>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="59"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="60"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="58"/>
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="58"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="58"/>
+      <c r="BI7" s="59"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -2736,2639 +2714,3839 @@
       <c r="CW7" s="1"/>
     </row>
     <row r="8" spans="1:101" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AH8" s="35" t="s">
+      <c r="AH8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AI8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AL8" s="35" t="s">
+      <c r="AL8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AM8" s="35" t="s">
+      <c r="AM8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AO8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AP8" s="35" t="s">
+      <c r="AP8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AQ8" s="35" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AT8" s="35" t="s">
+      <c r="AT8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AU8" s="35" t="s">
+      <c r="AU8" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AV8" s="35" t="s">
+      <c r="AV8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AW8" s="35" t="s">
+      <c r="AW8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AX8" s="35" t="s">
+      <c r="AX8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AY8" s="35" t="s">
+      <c r="AY8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AZ8" s="35" t="s">
+      <c r="AZ8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="BA8" s="35" t="s">
+      <c r="BA8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="BB8" s="35" t="s">
+      <c r="BB8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="BC8" s="35" t="s">
+      <c r="BC8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BD8" s="35" t="s">
+      <c r="BD8" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="BE8" s="35" t="s">
+      <c r="BE8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="BH8" s="35" t="s">
+      <c r="BH8" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="BI8" s="35" t="s">
+      <c r="BI8" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:101" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="28"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="30"/>
-      <c r="BI10" s="31"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>2</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
-      <c r="BI11" s="31"/>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="31"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>2</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="30"/>
-      <c r="BG13" s="30"/>
-      <c r="BH13" s="30"/>
-      <c r="BI13" s="31"/>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>2</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="30"/>
-      <c r="BC14" s="30"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="30"/>
-      <c r="BF14" s="30"/>
-      <c r="BG14" s="30"/>
-      <c r="BH14" s="30"/>
-      <c r="BI14" s="31"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>2</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>2</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="30"/>
-      <c r="BI15" s="31"/>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>2</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
-      <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
-      <c r="AZ16" s="30"/>
-      <c r="BA16" s="30"/>
-      <c r="BB16" s="30"/>
-      <c r="BC16" s="30"/>
-      <c r="BD16" s="30"/>
-      <c r="BE16" s="30"/>
-      <c r="BF16" s="30"/>
-      <c r="BG16" s="30"/>
-      <c r="BH16" s="30"/>
-      <c r="BI16" s="31"/>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>2</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="30"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="30"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="30"/>
-      <c r="BD17" s="30"/>
-      <c r="BE17" s="30"/>
-      <c r="BF17" s="30"/>
-      <c r="BG17" s="30"/>
-      <c r="BH17" s="30"/>
-      <c r="BI17" s="31"/>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>2</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>2</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="30"/>
-      <c r="BI18" s="31"/>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>2</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="31"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="28"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="30"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
-      <c r="BH20" s="30"/>
-      <c r="BI20" s="31"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="28"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="30"/>
-      <c r="BG21" s="30"/>
-      <c r="BH21" s="30"/>
-      <c r="BI21" s="31"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="28"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="31"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BE22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="28"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="31"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="28"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="31"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="27"/>
+      <c r="BE24" s="27"/>
+      <c r="BF24" s="27"/>
+      <c r="BG24" s="27"/>
+      <c r="BH24" s="27"/>
+      <c r="BI24" s="28"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
-      <c r="BF25" s="30"/>
-      <c r="BG25" s="30"/>
-      <c r="BH25" s="30"/>
-      <c r="BI25" s="31"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="27"/>
+      <c r="BE25" s="27"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="27"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="28"/>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
-      <c r="BE26" s="30"/>
-      <c r="BF26" s="30"/>
-      <c r="BG26" s="30"/>
-      <c r="BH26" s="30"/>
-      <c r="BI26" s="31"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27"/>
+      <c r="AV26" s="27"/>
+      <c r="AW26" s="27"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="27"/>
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="27"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="27"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="28"/>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="30"/>
-      <c r="BG27" s="30"/>
-      <c r="BH27" s="30"/>
-      <c r="BI27" s="31"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="27"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="28"/>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="30"/>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="31"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="28"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
-      <c r="AV29" s="30"/>
-      <c r="AW29" s="30"/>
-      <c r="AX29" s="30"/>
-      <c r="AY29" s="30"/>
-      <c r="AZ29" s="30"/>
-      <c r="BA29" s="30"/>
-      <c r="BB29" s="30"/>
-      <c r="BC29" s="30"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
-      <c r="BF29" s="30"/>
-      <c r="BG29" s="30"/>
-      <c r="BH29" s="30"/>
-      <c r="BI29" s="31"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="28"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="30"/>
-      <c r="AV30" s="30"/>
-      <c r="AW30" s="30"/>
-      <c r="AX30" s="30"/>
-      <c r="AY30" s="30"/>
-      <c r="AZ30" s="30"/>
-      <c r="BA30" s="30"/>
-      <c r="BB30" s="30"/>
-      <c r="BC30" s="30"/>
-      <c r="BD30" s="30"/>
-      <c r="BE30" s="30"/>
-      <c r="BF30" s="30"/>
-      <c r="BG30" s="30"/>
-      <c r="BH30" s="30"/>
-      <c r="BI30" s="31"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="28"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="30"/>
-      <c r="AV31" s="30"/>
-      <c r="AW31" s="30"/>
-      <c r="AX31" s="30"/>
-      <c r="AY31" s="30"/>
-      <c r="AZ31" s="30"/>
-      <c r="BA31" s="30"/>
-      <c r="BB31" s="30"/>
-      <c r="BC31" s="30"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
-      <c r="BF31" s="30"/>
-      <c r="BG31" s="30"/>
-      <c r="BH31" s="30"/>
-      <c r="BI31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="28"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="30"/>
-      <c r="AV32" s="30"/>
-      <c r="AW32" s="30"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="30"/>
-      <c r="BA32" s="30"/>
-      <c r="BB32" s="30"/>
-      <c r="BC32" s="30"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="30"/>
-      <c r="BG32" s="30"/>
-      <c r="BH32" s="30"/>
-      <c r="BI32" s="31"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="27"/>
+      <c r="BC32" s="27"/>
+      <c r="BD32" s="27"/>
+      <c r="BE32" s="27"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="27"/>
+      <c r="BH32" s="27"/>
+      <c r="BI32" s="28"/>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="30"/>
-      <c r="AV33" s="30"/>
-      <c r="AW33" s="30"/>
-      <c r="AX33" s="30"/>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="30"/>
-      <c r="BA33" s="30"/>
-      <c r="BB33" s="30"/>
-      <c r="BC33" s="30"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
-      <c r="BF33" s="30"/>
-      <c r="BG33" s="30"/>
-      <c r="BH33" s="30"/>
-      <c r="BI33" s="31"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="27"/>
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="27"/>
+      <c r="BC33" s="27"/>
+      <c r="BD33" s="27"/>
+      <c r="BE33" s="27"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="28"/>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="30"/>
-      <c r="AV34" s="30"/>
-      <c r="AW34" s="30"/>
-      <c r="AX34" s="30"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
-      <c r="BA34" s="30"/>
-      <c r="BB34" s="30"/>
-      <c r="BC34" s="30"/>
-      <c r="BD34" s="30"/>
-      <c r="BE34" s="30"/>
-      <c r="BF34" s="30"/>
-      <c r="BG34" s="30"/>
-      <c r="BH34" s="30"/>
-      <c r="BI34" s="31"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
+      <c r="AQ34" s="27"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="27"/>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="27"/>
+      <c r="AX34" s="27"/>
+      <c r="AY34" s="27"/>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="27"/>
+      <c r="BC34" s="27"/>
+      <c r="BD34" s="27"/>
+      <c r="BE34" s="27"/>
+      <c r="BF34" s="27"/>
+      <c r="BG34" s="27"/>
+      <c r="BH34" s="27"/>
+      <c r="BI34" s="28"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
-      <c r="AU35" s="30"/>
-      <c r="AV35" s="30"/>
-      <c r="AW35" s="30"/>
-      <c r="AX35" s="30"/>
-      <c r="AY35" s="30"/>
-      <c r="AZ35" s="30"/>
-      <c r="BA35" s="30"/>
-      <c r="BB35" s="30"/>
-      <c r="BC35" s="30"/>
-      <c r="BD35" s="30"/>
-      <c r="BE35" s="30"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="30"/>
-      <c r="BH35" s="30"/>
-      <c r="BI35" s="31"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="27"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="28"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="30"/>
-      <c r="AV36" s="30"/>
-      <c r="AW36" s="30"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="30"/>
-      <c r="BD36" s="30"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="30"/>
-      <c r="BG36" s="30"/>
-      <c r="BH36" s="30"/>
-      <c r="BI36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="27"/>
+      <c r="BE36" s="27"/>
+      <c r="BF36" s="27"/>
+      <c r="BG36" s="27"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="28"/>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="30"/>
-      <c r="AV37" s="30"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="30"/>
-      <c r="BI37" s="31"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="27"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="27"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="27"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="27"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="28"/>
     </row>
     <row r="38" spans="1:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-      <c r="BA38" s="33"/>
-      <c r="BB38" s="33"/>
-      <c r="BC38" s="33"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="33"/>
-      <c r="BG38" s="33"/>
-      <c r="BH38" s="33"/>
-      <c r="BI38" s="34"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
+      <c r="AM38" s="30"/>
+      <c r="AN38" s="30"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="30"/>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="30"/>
+      <c r="AX38" s="30"/>
+      <c r="AY38" s="30"/>
+      <c r="AZ38" s="30"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
+      <c r="BH38" s="30"/>
+      <c r="BI38" s="31"/>
     </row>
     <row r="39" spans="1:61" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="37">
         <f>IF(SUM(B19:B38)=0,SUM(B9:B18)/10, SUM(B9:B38)/30)</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="C40" s="37">
         <f t="shared" ref="C40:BI40" si="0">IF(SUM(C19:C38)=0,SUM(C9:C18)/10, SUM(C9:C38)/30)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="H40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="L40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="M40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="N40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="O40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="P40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="Q40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="R40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="S40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="T40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="U40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="V40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="W40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="40">
+        <v>1</v>
+      </c>
+      <c r="X40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="Y40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="Z40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="AA40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="AB40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AC40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="AD40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AE40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="40">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="AG40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="AH40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="40">
+      <c r="AI40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="AJ40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="AK40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="AL40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM40" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="AM40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AN40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AO40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP40" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AP40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AQ40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="AR40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AS40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="AT40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="AU40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV40" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="AV40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="AW40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="AX40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY40" s="40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="AZ40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BA40" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="BA40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BB40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="BB40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BC40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="BC40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BD40" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="BD40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BE40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="BE40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BF40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="BF40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BG40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="BG40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BH40" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="BH40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="BI40" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="BI40" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="37">
         <f>COUNTIF(B9:B38,"&gt;=2")</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="40">
+        <v>2</v>
+      </c>
+      <c r="C42" s="37">
         <f t="shared" ref="C42:BI42" si="1">COUNTIF(C9:C38,"&gt;=2")</f>
         <v>0</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="40">
+        <v>1</v>
+      </c>
+      <c r="F42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="40">
+        <v>2</v>
+      </c>
+      <c r="H42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="40">
+        <v>1</v>
+      </c>
+      <c r="J42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="40">
+        <v>1</v>
+      </c>
+      <c r="L42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="40">
+        <v>1</v>
+      </c>
+      <c r="M42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="40">
+        <v>3</v>
+      </c>
+      <c r="N42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="40">
+        <v>1</v>
+      </c>
+      <c r="O42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P42" s="40">
+      <c r="P42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="40">
+      <c r="Q42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="40">
+        <v>2</v>
+      </c>
+      <c r="R42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="40">
+        <v>1</v>
+      </c>
+      <c r="S42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="40">
+        <v>1</v>
+      </c>
+      <c r="T42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="40">
+        <v>2</v>
+      </c>
+      <c r="U42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="40">
+        <v>2</v>
+      </c>
+      <c r="V42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W42" s="40">
+      <c r="W42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="40">
+        <v>2</v>
+      </c>
+      <c r="X42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="40">
+      <c r="Y42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="40">
+      <c r="AA42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="40">
+      <c r="AB42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="40">
+      <c r="AD42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="40">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="40">
+      <c r="AI42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ42" s="40">
+      <c r="AJ42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="40">
+        <v>5</v>
+      </c>
+      <c r="AM42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="40">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="40">
+        <v>2</v>
+      </c>
+      <c r="AO42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR42" s="40">
+      <c r="AR42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS42" s="40">
+        <v>2</v>
+      </c>
+      <c r="AS42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT42" s="40">
+      <c r="AT42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV42" s="40">
+      <c r="AV42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW42" s="40">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX42" s="40">
+      <c r="AX42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AY42" s="40">
+        <v>4</v>
+      </c>
+      <c r="AY42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AZ42" s="40">
+        <v>2</v>
+      </c>
+      <c r="AZ42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BA42" s="40">
+        <v>3</v>
+      </c>
+      <c r="BA42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB42" s="40">
+      <c r="BB42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC42" s="40">
+      <c r="BC42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD42" s="40">
+      <c r="BD42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BE42" s="40">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BF42" s="40">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG42" s="40">
+        <v>1</v>
+      </c>
+      <c r="BG42" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BH42" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI42" s="40">
+      <c r="BI42" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="E44" s="51" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="E44" s="48" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="53"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -5418,17 +6596,21 @@
       <c r="BB44" s="2"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="E45" s="45">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="E45" s="42">
         <v>0</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="52"/>
+      <c r="G45" s="52" t="s">
+        <v>130</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5475,21 +6657,30 @@
       <c r="BB45" s="2"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43">
+      <c r="B46" s="39"/>
+      <c r="C46" s="40">
         <v>60</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="42">
         <v>0.1</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="49">
+        <f>SUM(B42:BI42)</f>
+        <v>62</v>
+      </c>
+      <c r="H46" s="2">
+        <f>COUNTIF(B9:BI18, "&gt;=2")</f>
+        <v>62</v>
+      </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="53">
+        <f>COUNTIF(B9:BI18, "=0")</f>
+        <v>362</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5536,19 +6727,19 @@
       <c r="BB46" s="2"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44">
+      <c r="B47" s="39"/>
+      <c r="C47" s="41">
         <f>IF(SUM(B9:BI38)=0, 0, IF(SUM(B19:BI38)=0,10,30))</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="45">
+        <v>10</v>
+      </c>
+      <c r="E47" s="42">
         <v>0.2</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -5598,19 +6789,19 @@
       <c r="BB47" s="2"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44">
+      <c r="B48" s="39"/>
+      <c r="C48" s="41">
         <f>AVERAGE(B40:BI40)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="45">
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="E48" s="42">
         <v>0.3</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="52"/>
+      <c r="G48" s="49"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -5660,19 +6851,19 @@
       <c r="BB48" s="2"/>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="44">
+      <c r="B49" s="39"/>
+      <c r="C49" s="41">
         <f>STDEV(B40:BI40)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="45">
+        <v>0.24277119497037644</v>
+      </c>
+      <c r="E49" s="42">
         <v>0.4</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="52"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -5722,14 +6913,14 @@
       <c r="BB49" s="2"/>
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="E50" s="45">
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="E50" s="42">
         <v>0.5</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="52"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -5779,7 +6970,7 @@
       <c r="BB50" s="2"/>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E51" s="45">
+      <c r="E51" s="42">
         <v>0.6</v>
       </c>
       <c r="F51" s="2"/>
@@ -5833,7 +7024,7 @@
       <c r="BB51" s="2"/>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E52" s="54"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -5885,7 +7076,7 @@
       <c r="BB52" s="2"/>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E53" s="54"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -5937,7 +7128,7 @@
       <c r="BB53" s="2"/>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E54" s="54"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -5989,7 +7180,7 @@
       <c r="BB54" s="2"/>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E55" s="54"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -6041,12 +7232,12 @@
       <c r="BB55" s="2"/>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E56" s="54"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6093,7 +7284,7 @@
       <c r="BB56" s="2"/>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="E57" s="54"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
